--- a/OtherFiles/Расчет частоты.xlsx
+++ b/OtherFiles/Расчет частоты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32\studyMCU_407\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32F_Project\studyMCU_407\OtherFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943CFE73-0B59-4ECF-BC58-31D18C482DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE8645-EAD1-4B15-90E4-9DC4C4E774A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>Тактовая частота МК</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Расчет частоты для CPU temperature: TIM3</t>
+  </si>
+  <si>
+    <t>Расчет частоты для ADC IN8 temperature: TIM2</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -160,23 +163,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,12 +489,12 @@
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="1">
         <v>24</v>
       </c>
@@ -495,17 +504,17 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -524,30 +533,38 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Q3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -565,8 +582,14 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -579,11 +602,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="6">
         <v>2399</v>
       </c>
@@ -591,9 +614,19 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Q5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="9">
+        <v>2399</v>
+      </c>
+      <c r="U5" s="9"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -608,11 +641,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="6">
         <v>9999</v>
       </c>
@@ -620,9 +653,19 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Q6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="9">
+        <v>4999</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -638,11 +681,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="6">
         <f>D1*1000000/(L5+1)/(L6+1)</f>
         <v>1</v>
@@ -658,9 +701,27 @@
         <v>11</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Q7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="9">
+        <f>D1*1000000/(T5+1)/(T6+1)</f>
+        <v>2</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="1">
+        <f>T7/1000</f>
+        <v>2E-3</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -669,11 +730,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="6">
         <f>1/L7*10^6</f>
         <v>1000000</v>
@@ -689,9 +750,27 @@
         <v>13</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Q8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="9">
+        <f>1/T7*10^6</f>
+        <v>500000</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="1">
+        <f>T8*10^-6</f>
+        <v>0.5</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -710,30 +789,30 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -752,12 +831,12 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="6">
         <v>47</v>
       </c>
@@ -765,11 +844,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="6">
         <v>0</v>
       </c>
@@ -779,12 +858,12 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="6">
         <v>199</v>
       </c>
@@ -792,11 +871,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="6">
         <v>29</v>
       </c>
@@ -806,12 +885,12 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="6">
         <f>D1*1000000/(D12+1)/(D13+1)</f>
         <v>2500</v>
@@ -822,11 +901,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="6">
         <f>D1*1000000/(L12+1)/(L13+1)</f>
         <v>800000</v>
@@ -844,12 +923,12 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="6">
         <f>1/D14*10^6</f>
         <v>400</v>
@@ -860,11 +939,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="6">
         <f>1/L14*10^6</f>
         <v>1.25</v>
@@ -877,7 +956,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -897,10 +976,10 @@
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -935,9 +1014,9 @@
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
@@ -1068,18 +1147,12 @@
       <c r="Q25" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A3:E3"/>
+  <mergeCells count="31">
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A19:C19"/>
@@ -1095,6 +1168,17 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OtherFiles/Расчет частоты.xlsx
+++ b/OtherFiles/Расчет частоты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32F_Project\studyMCU_407\OtherFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE8645-EAD1-4B15-90E4-9DC4C4E774A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F37F3FA-B041-437F-AFFF-D84B49D997DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,25 +169,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,11 +490,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1">
         <v>24</v>
       </c>
@@ -504,10 +504,10 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -534,33 +534,33 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
@@ -590,11 +590,11 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="1">
         <v>23</v>
       </c>
@@ -627,11 +627,11 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="1">
         <v>49</v>
       </c>
@@ -659,18 +659,18 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="9">
-        <v>4999</v>
+        <v>5999</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1">
         <f>1/(D1/(D5+1)/(D6+1))</f>
         <v>50</v>
@@ -708,14 +708,14 @@
       <c r="S7" s="12"/>
       <c r="T7" s="9">
         <f>D1*1000000/(T5+1)/(T6+1)</f>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="V7" s="1">
         <f>T7/1000</f>
-        <v>2E-3</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="W7" s="10" t="s">
         <v>11</v>
@@ -757,14 +757,14 @@
       <c r="S8" s="12"/>
       <c r="T8" s="9">
         <f>1/T7*10^6</f>
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="V8" s="1">
         <f>T8*10^-6</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>13</v>
@@ -790,22 +790,22 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -976,10 +976,10 @@
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1033,9 +1033,9 @@
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="5"/>
@@ -1052,9 +1052,9 @@
       <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="5"/>
@@ -1071,9 +1071,9 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="5"/>
@@ -1148,11 +1148,17 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A19:C19"/>
@@ -1168,17 +1174,11 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
